--- a/docs/assets/disciplinas/LOQ4251.xlsx
+++ b/docs/assets/disciplinas/LOQ4251.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Este curso tem por objetivo fornecer aos alunos de Engenharia de Produção os princípios fundamentais da Química com enfoque tecnológico e nas aplicações industriais passíveis de serem encontradas na profissão.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>198273 - Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1 – Conceitos básicos de Química; 2 – Os estados físicos da matéria e suas propriedades peculiares; 3 – Reações químicas; 4 – Noções de química orgânica; 5 – Materiais modernos; 6 – Tecnologia Química aplicada</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Programa em português1.Conceitos básicos de Química (2 horas)a.Estrutura Atômicab.Tabela Periódicac.Ligações Químicas2.Os estados físicos da matéria e suas propriedades peculiares (6 horas)a.O estado gasoso – pressão, relações PVT, gases ideais e reaisb.O estado líquido – soluções, forças intermoleculares, viscosidade, tensão superficial, pressão de vapor, mudanças de fasec.O estado sólido – classificação dos sólidos (moleculares, reticulares, metálicos e iônicos) 3.Reações químicas (8 horas)a.Tipos de reações (dupla-troca, oxirredução)b.Estequiometria em reações químicas (reagentes limitantes, pureza e rendimento)c.Energia e reações químicasd.Equilíbrio químico – soluções tampãoe.Fundamentos de corrosão4.Noções de química orgânica (6 horas)a.Hidrocarbonetos e suas principais propriedadesb.Combustíveis e combustãoc.Polímeros5.Tecnologia Química aplicada (8 horas)a.Papel e celuloseb.Açúcar e álcoolc.Sabões e detergentesd.Petróleo e gáse.Gases industriais f.Produção de vidros e cimento</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas e um seminário que, juntos, constituem a primeira avaliação.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota de primeira avaliação será igual à média das notas das duas provas, com peso 7 somada à nota do seminário com peso 3. Alunos com nota de primeira avaliação igual ou superior a 5 estarão aprovados, com nota entre 3 e 4,9 em recuperação e abaixo de 3 reprovados.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação se constituirá de uma prova abordando todos os assuntos do semestre, a nota de segunda avaliação será igual à média entre a nota de primeira avaliação e a prova de recuperação. Alunos com nota de segunda avaliação igual ou superior a 5 estarão aprovados e inferior a 5 reprovados.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BROWN, T.L. et al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007ATKINS, P. Princípios de Química, questionando a vida moderna e o meio ambiente. 3ª Ed. Porto Alegre: Editora Bookman, 2006KOTZ, J. C. et al. Química geral e reações químicas, 9ª Edição, São Paulo, Cengage Learning, 2015.TOLENTINO, N. M. C. Processos Químicos Industriais, 1ª Edição, São Paulo, Érica, 2015.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4251.xlsx
+++ b/docs/assets/disciplinas/LOQ4251.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Este curso tem por objetivo fornecer aos alunos de Engenharia de Produção os princípios fundamentais da Química com enfoque tecnológico e nas aplicações industriais passíveis de serem encontradas na profissão.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>This course aims to provide students of Production Engineering with the fundamental principles of Chemistry with a technological focus and in the industrial applications that can be found in the profession.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>This course aims to provide students of Production Engineering with the fundamental principles of Chemistry with a technological focus and in the industrial applications that can be found in the profession.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1 – Conceitos básicos de Química; 2 – Os estados físicos da matéria e suas propriedades peculiares; 3 – Reações químicas; 4 – Noções de química orgânica; 5 – Materiais modernos; 6 – Tecnologia Química aplicada</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Programa em português1.Conceitos básicos de Química (2 horas)a.Estrutura Atômicab.Tabela Periódicac.Ligações Químicas2.Os estados físicos da matéria e suas propriedades peculiares (6 horas)a.O estado gasoso – pressão, relações PVT, gases ideais e reaisb.O estado líquido – soluções, forças intermoleculares, viscosidade, tensão superficial, pressão de vapor, mudanças de fasec.O estado sólido – classificação dos sólidos (moleculares, reticulares, metálicos e iônicos) 3.Reações químicas (8 horas)a.Tipos de reações (dupla-troca, oxirredução)b.Estequiometria em reações químicas (reagentes limitantes, pureza e rendimento)c.Energia e reações químicasd.Equilíbrio químico – soluções tampãoe.Fundamentos de corrosão4.Noções de química orgânica (6 horas)a.Hidrocarbonetos e suas principais propriedadesb.Combustíveis e combustãoc.Polímeros5.Tecnologia Química aplicada (8 horas)a.Papel e celuloseb.Açúcar e álcoolc.Sabões e detergentesd.Petróleo e gáse.Gases industriais f.Produção de vidros e cimento</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas e um seminário que, juntos, constituem a primeira avaliação.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas e um seminário que, juntos, constituem a primeira avaliação.</t>
+    <t>A nota de primeira avaliação será igual à média das notas das duas provas, com peso 7 somada à nota do seminário com peso 3. Alunos com nota de primeira avaliação igual ou superior a 5 estarão aprovados, com nota entre 3 e 4,9 em recuperação e abaixo de 3 reprovados.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota de primeira avaliação será igual à média das notas das duas provas, com peso 7 somada à nota do seminário com peso 3. Alunos com nota de primeira avaliação igual ou superior a 5 estarão aprovados, com nota entre 3 e 4,9 em recuperação e abaixo de 3 reprovados.</t>
+    <t>A recuperação se constituirá de uma prova abordando todos os assuntos do semestre, a nota de segunda avaliação será igual à média entre a nota de primeira avaliação e a prova de recuperação. Alunos com nota de segunda avaliação igual ou superior a 5 estarão aprovados e inferior a 5 reprovados.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação se constituirá de uma prova abordando todos os assuntos do semestre, a nota de segunda avaliação será igual à média entre a nota de primeira avaliação e a prova de recuperação. Alunos com nota de segunda avaliação igual ou superior a 5 estarão aprovados e inferior a 5 reprovados.</t>
+    <t>BROWN, T.L. et al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007ATKINS, P. Princípios de Química, questionando a vida moderna e o meio ambiente. 3ª Ed. Porto Alegre: Editora Bookman, 2006KOTZ, J. C. et al. Química geral e reações químicas, 9ª Edição, São Paulo, Cengage Learning, 2015.TOLENTINO, N. M. C. Processos Químicos Industriais, 1ª Edição, São Paulo, Érica, 2015.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
